--- a/state_output_nostop_2018test.xlsx
+++ b/state_output_nostop_2018test.xlsx
@@ -351,13 +351,2116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>state1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>parameter_draw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_10</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_11</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_12</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_13</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_14</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_15</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_16</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_17</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_18</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_19</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_20</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_21</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_22</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_23</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_24</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_27</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>change_CS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>observed_trips</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>n_choice_occasions</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>alt_regs</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_8</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_9</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_25</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_26</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_29</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_28</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_30</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_28</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_30</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_6</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_7</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_29</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_31</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_31</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_wf</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_wf</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_16</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_rd</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_rd</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_15</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>reg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>97687.63994224543</v>
+      </c>
+      <c r="C2">
+        <v>7867.193721696557</v>
+      </c>
+      <c r="D2">
+        <v>6942.529554546773</v>
+      </c>
+      <c r="E2">
+        <v>13120.47570016257</v>
+      </c>
+      <c r="F2">
+        <v>28321.78272825899</v>
+      </c>
+      <c r="G2">
+        <v>19735.30436610064</v>
+      </c>
+      <c r="H2">
+        <v>22375.70028456644</v>
+      </c>
+      <c r="I2">
+        <v>82009.35918326982</v>
+      </c>
+      <c r="J2">
+        <v>27488.35558594344</v>
+      </c>
+      <c r="K2">
+        <v>6317.038581959747</v>
+      </c>
+      <c r="L2">
+        <v>3422.178149191937</v>
+      </c>
+      <c r="M2">
+        <v>7141.003014257021</v>
+      </c>
+      <c r="N2">
+        <v>2686.288172498038</v>
+      </c>
+      <c r="O2">
+        <v>2097.909741329845</v>
+      </c>
+      <c r="P2">
+        <v>1641.455240610894</v>
+      </c>
+      <c r="Q2">
+        <v>317.6245119935123</v>
+      </c>
+      <c r="R2">
+        <v>56.60845840537053</v>
+      </c>
+      <c r="S2">
+        <v>51168.46145618981</v>
+      </c>
+      <c r="T2">
+        <v>180931.3790960123</v>
+      </c>
+      <c r="U2">
+        <v>34519.44659060759</v>
+      </c>
+      <c r="V2">
+        <v>49586.17336507304</v>
+      </c>
+      <c r="W2">
+        <v>92504.43952279235</v>
+      </c>
+      <c r="X2">
+        <v>28710.69051816062</v>
+      </c>
+      <c r="Y2">
+        <v>55692.85471610799</v>
+      </c>
+      <c r="Z2">
+        <v>303.8035144164515</v>
+      </c>
+      <c r="AA2">
+        <v>64.45186564436041</v>
+      </c>
+      <c r="AB2">
+        <v>37.54488173613225</v>
+      </c>
+      <c r="AC2">
+        <v>83.39347370418437</v>
+      </c>
+      <c r="AD2">
+        <v>27.44881742978074</v>
+      </c>
+      <c r="AE2">
+        <v>23.24225094332224</v>
+      </c>
+      <c r="AF2">
+        <v>15.30983955577468</v>
+      </c>
+      <c r="AG2">
+        <v>2.938668788092074</v>
+      </c>
+      <c r="AH2">
+        <v>0.9002451924253756</v>
+      </c>
+      <c r="AI2">
+        <v>44835.59235905676</v>
+      </c>
+      <c r="AJ2">
+        <v>97687.63994224543</v>
+      </c>
+      <c r="AK2">
+        <v>484373</v>
+      </c>
+      <c r="AL2">
+        <v>11</v>
+      </c>
+      <c r="AM2">
+        <v>11</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>465080.2251805646</v>
+      </c>
+      <c r="C3">
+        <v>6876.175085896932</v>
+      </c>
+      <c r="D3">
+        <v>20904.05311388558</v>
+      </c>
+      <c r="E3">
+        <v>59842.03642983519</v>
+      </c>
+      <c r="F3">
+        <v>86623.39500691323</v>
+      </c>
+      <c r="G3">
+        <v>89971.53236402443</v>
+      </c>
+      <c r="H3">
+        <v>155181.1093369517</v>
+      </c>
+      <c r="I3">
+        <v>168939.4846532565</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>34043.98886870204</v>
+      </c>
+      <c r="M3">
+        <v>67221.25538655451</v>
+      </c>
+      <c r="N3">
+        <v>59811.28976745038</v>
+      </c>
+      <c r="O3">
+        <v>16410.71097062379</v>
+      </c>
+      <c r="P3">
+        <v>11399.78351118879</v>
+      </c>
+      <c r="Q3">
+        <v>15256.15042539788</v>
+      </c>
+      <c r="R3">
+        <v>10600.01122525378</v>
+      </c>
+      <c r="S3">
+        <v>225710.3568574721</v>
+      </c>
+      <c r="T3">
+        <v>872566.8666347473</v>
+      </c>
+      <c r="U3">
+        <v>153496.7095493511</v>
+      </c>
+      <c r="V3">
+        <v>202569.12196583</v>
+      </c>
+      <c r="W3">
+        <v>447292.9024886855</v>
+      </c>
+      <c r="X3">
+        <v>355818.8429578388</v>
+      </c>
+      <c r="Y3">
+        <v>48492.211213426</v>
+      </c>
+      <c r="Z3">
+        <v>189115.1100632092</v>
+      </c>
+      <c r="AA3">
+        <v>84305.65363818345</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>101892.6400886656</v>
+      </c>
+      <c r="AJ3">
+        <v>465080.2251805646</v>
+      </c>
+      <c r="AK3">
+        <v>1927638</v>
+      </c>
+      <c r="AL3">
+        <v>12</v>
+      </c>
+      <c r="AM3">
+        <v>12</v>
+      </c>
+      <c r="AN3">
+        <v>2929.479159850333</v>
+      </c>
+      <c r="AO3">
+        <v>7878.837782740672</v>
+      </c>
+      <c r="AP3">
+        <v>2843.717947994262</v>
+      </c>
+      <c r="AQ3">
+        <v>3432.837035846152</v>
+      </c>
+      <c r="AR3">
+        <v>4178.269735448219</v>
+      </c>
+      <c r="AS3">
+        <v>464.4780166308664</v>
+      </c>
+      <c r="AT3">
+        <v>47.86396638141007</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>413306.0784531642</v>
+      </c>
+      <c r="C4">
+        <v>18466.96879942597</v>
+      </c>
+      <c r="D4">
+        <v>11890.73059743584</v>
+      </c>
+      <c r="E4">
+        <v>36868.94114536733</v>
+      </c>
+      <c r="F4">
+        <v>97485.63165720239</v>
+      </c>
+      <c r="G4">
+        <v>104355.9425204287</v>
+      </c>
+      <c r="H4">
+        <v>109976.9870636416</v>
+      </c>
+      <c r="I4">
+        <v>160750.2962239868</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>44902.06882983795</v>
+      </c>
+      <c r="M4">
+        <v>18717.23582299527</v>
+      </c>
+      <c r="N4">
+        <v>14829.25794491136</v>
+      </c>
+      <c r="O4">
+        <v>8620.173203553361</v>
+      </c>
+      <c r="P4">
+        <v>4477.791954916876</v>
+      </c>
+      <c r="Q4">
+        <v>3025.834069797431</v>
+      </c>
+      <c r="R4">
+        <v>367.2757365776354</v>
+      </c>
+      <c r="S4">
+        <v>95965.27471387101</v>
+      </c>
+      <c r="T4">
+        <v>882191.1976471427</v>
+      </c>
+      <c r="U4">
+        <v>144137.3411870174</v>
+      </c>
+      <c r="V4">
+        <v>160666.3713355531</v>
+      </c>
+      <c r="W4">
+        <v>445323.2802423166</v>
+      </c>
+      <c r="X4">
+        <v>361292.3631471302</v>
+      </c>
+      <c r="Y4">
+        <v>12386.24308525527</v>
+      </c>
+      <c r="Z4">
+        <v>176866.9825219027</v>
+      </c>
+      <c r="AA4">
+        <v>149596.0818759267</v>
+      </c>
+      <c r="AB4">
+        <v>179.4809992561587</v>
+      </c>
+      <c r="AC4">
+        <v>83.24995702069964</v>
+      </c>
+      <c r="AD4">
+        <v>59.53856433307679</v>
+      </c>
+      <c r="AE4">
+        <v>33.76498696179672</v>
+      </c>
+      <c r="AF4">
+        <v>18.77994050754099</v>
+      </c>
+      <c r="AG4">
+        <v>12.32276056157008</v>
+      </c>
+      <c r="AH4">
+        <v>1.291399849371327</v>
+      </c>
+      <c r="AI4">
+        <v>45291.2536608069</v>
+      </c>
+      <c r="AJ4">
+        <v>413306.0784531642</v>
+      </c>
+      <c r="AK4">
+        <v>1845767</v>
+      </c>
+      <c r="AL4">
+        <v>12</v>
+      </c>
+      <c r="AM4">
+        <v>12</v>
+      </c>
+      <c r="AN4">
+        <v>7017.37293757403</v>
+      </c>
+      <c r="AO4">
+        <v>8522.840412021615</v>
+      </c>
+      <c r="AP4">
+        <v>502.6399138768329</v>
+      </c>
+      <c r="AQ4">
+        <v>82.05290936484698</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>415.9049833366368</v>
+      </c>
+      <c r="AT4">
+        <v>25.03934470281723</v>
+      </c>
+      <c r="AU4">
+        <v>1.638909579184643</v>
+      </c>
+      <c r="AV4">
+        <v>0.5591530124658384</v>
+      </c>
+      <c r="AW4">
+        <v>1.689997217640018</v>
+      </c>
+      <c r="AX4">
+        <v>0.1052239295701177</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3569518.56624852</v>
+      </c>
+      <c r="C5">
+        <v>137109.0490088715</v>
+      </c>
+      <c r="D5">
+        <v>410181.1371573244</v>
+      </c>
+      <c r="E5">
+        <v>673021.9455194646</v>
+      </c>
+      <c r="F5">
+        <v>973783.9393277344</v>
+      </c>
+      <c r="G5">
+        <v>1209102.987714223</v>
+      </c>
+      <c r="H5">
+        <v>1323465.018616886</v>
+      </c>
+      <c r="I5">
+        <v>1145363.312283376</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>182047.9648006006</v>
+      </c>
+      <c r="M5">
+        <v>97181.85153486465</v>
+      </c>
+      <c r="N5">
+        <v>94391.30640439382</v>
+      </c>
+      <c r="O5">
+        <v>72489.93913242919</v>
+      </c>
+      <c r="P5">
+        <v>43168.74068147777</v>
+      </c>
+      <c r="Q5">
+        <v>26788.52141738543</v>
+      </c>
+      <c r="R5">
+        <v>9978.577463854706</v>
+      </c>
+      <c r="S5">
+        <v>577345.9461802011</v>
+      </c>
+      <c r="T5">
+        <v>7216953.240546211</v>
+      </c>
+      <c r="U5">
+        <v>1186439.181685092</v>
+      </c>
+      <c r="V5">
+        <v>576694.797724953</v>
+      </c>
+      <c r="W5">
+        <v>4490437.246794295</v>
+      </c>
+      <c r="X5">
+        <v>1119183.237783318</v>
+      </c>
+      <c r="Y5">
+        <v>2050993.810888945</v>
+      </c>
+      <c r="Z5">
+        <v>760035.6289604455</v>
+      </c>
+      <c r="AA5">
+        <v>425165.0643335437</v>
+      </c>
+      <c r="AB5">
+        <v>18438.77285860185</v>
+      </c>
+      <c r="AC5">
+        <v>10562.06249577956</v>
+      </c>
+      <c r="AD5">
+        <v>10955.6549525894</v>
+      </c>
+      <c r="AE5">
+        <v>8309.927125308575</v>
+      </c>
+      <c r="AF5">
+        <v>4736.084973929065</v>
+      </c>
+      <c r="AG5">
+        <v>2927.307569184834</v>
+      </c>
+      <c r="AH5">
+        <v>1098.024185610111</v>
+      </c>
+      <c r="AI5">
+        <v>4969553.658993226</v>
+      </c>
+      <c r="AJ5">
+        <v>3569518.56624852</v>
+      </c>
+      <c r="AK5">
+        <v>16757891</v>
+      </c>
+      <c r="AL5">
+        <v>15</v>
+      </c>
+      <c r="AM5">
+        <v>15</v>
+      </c>
+      <c r="AN5">
+        <v>29582.46126666311</v>
+      </c>
+      <c r="AO5">
+        <v>43483.04970384197</v>
+      </c>
+      <c r="AP5">
+        <v>23088.21651552202</v>
+      </c>
+      <c r="AQ5">
+        <v>17164.58286823665</v>
+      </c>
+      <c r="AR5">
+        <v>1202.392091333381</v>
+      </c>
+      <c r="AS5">
+        <v>5336.418333346978</v>
+      </c>
+      <c r="AT5">
+        <v>3273.695493639251</v>
+      </c>
+      <c r="AU5">
+        <v>2238.787762754171</v>
+      </c>
+      <c r="AV5">
+        <v>1809.665032201977</v>
+      </c>
+      <c r="AW5">
+        <v>440.8288660955543</v>
+      </c>
+      <c r="AX5">
+        <v>530.0560064147774</v>
+      </c>
+      <c r="AY5">
+        <v>5443.669256255686</v>
+      </c>
+      <c r="AZ5">
+        <v>18774.10599925202</v>
+      </c>
+      <c r="BA5">
+        <v>223.7041115726767</v>
+      </c>
+      <c r="BB5">
+        <v>170.9954582861742</v>
+      </c>
+      <c r="BC5">
+        <v>1233.739443116613</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4602561.161301329</v>
+      </c>
+      <c r="C6">
+        <v>310423.2026320985</v>
+      </c>
+      <c r="D6">
+        <v>665413.2115659567</v>
+      </c>
+      <c r="E6">
+        <v>1180956.000451556</v>
+      </c>
+      <c r="F6">
+        <v>1242051.63612478</v>
+      </c>
+      <c r="G6">
+        <v>1613822.146728746</v>
+      </c>
+      <c r="H6">
+        <v>1649613.978382279</v>
+      </c>
+      <c r="I6">
+        <v>1739565.959177264</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>406100.1010468818</v>
+      </c>
+      <c r="L6">
+        <v>251544.4291998098</v>
+      </c>
+      <c r="M6">
+        <v>171746.5338896926</v>
+      </c>
+      <c r="N6">
+        <v>102946.0074347782</v>
+      </c>
+      <c r="O6">
+        <v>64426.91892895466</v>
+      </c>
+      <c r="P6">
+        <v>19973.08073608068</v>
+      </c>
+      <c r="Q6">
+        <v>37769.05090386273</v>
+      </c>
+      <c r="R6">
+        <v>217.7246441432471</v>
+      </c>
+      <c r="S6">
+        <v>1099762.661108265</v>
+      </c>
+      <c r="T6">
+        <v>10079716.31155206</v>
+      </c>
+      <c r="U6">
+        <v>581936.3463005724</v>
+      </c>
+      <c r="V6">
+        <v>138742.255505233</v>
+      </c>
+      <c r="W6">
+        <v>1985526.962931423</v>
+      </c>
+      <c r="X6">
+        <v>2497.347672484347</v>
+      </c>
+      <c r="Y6">
+        <v>16090.55597108084</v>
+      </c>
+      <c r="Z6">
+        <v>1562036.849895683</v>
+      </c>
+      <c r="AA6">
+        <v>6794.976503982429</v>
+      </c>
+      <c r="AB6">
+        <v>4270.125295579814</v>
+      </c>
+      <c r="AC6">
+        <v>2825.322527191501</v>
+      </c>
+      <c r="AD6">
+        <v>1593.100155778619</v>
+      </c>
+      <c r="AE6">
+        <v>1134.497677505603</v>
+      </c>
+      <c r="AF6">
+        <v>335.9117520390001</v>
+      </c>
+      <c r="AG6">
+        <v>546.5278095197488</v>
+      </c>
+      <c r="AH6">
+        <v>6.664571780773169</v>
+      </c>
+      <c r="AI6">
+        <v>-783082.5453987917</v>
+      </c>
+      <c r="AJ6">
+        <v>4602561.161301329</v>
+      </c>
+      <c r="AK6">
+        <v>19251502</v>
+      </c>
+      <c r="AL6">
+        <v>15</v>
+      </c>
+      <c r="AM6">
+        <v>15</v>
+      </c>
+      <c r="AN6">
+        <v>17305.2766834413</v>
+      </c>
+      <c r="AO6">
+        <v>59547.37151641104</v>
+      </c>
+      <c r="AP6">
+        <v>32055.17543224836</v>
+      </c>
+      <c r="AQ6">
+        <v>7528.664573724846</v>
+      </c>
+      <c r="AR6">
+        <v>1058.721992309371</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>2685.873084247755</v>
+      </c>
+      <c r="AU6">
+        <v>513.9301722866229</v>
+      </c>
+      <c r="AV6">
+        <v>131.6803246979186</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>41.55019120964289</v>
+      </c>
+      <c r="AY6">
+        <v>13013.26402576528</v>
+      </c>
+      <c r="AZ6">
+        <v>7705.033215973832</v>
+      </c>
+      <c r="BA6">
+        <v>36.23419852945513</v>
+      </c>
+      <c r="BB6">
+        <v>31.85997200803503</v>
+      </c>
+      <c r="BC6">
+        <v>1710.379241530947</v>
+      </c>
+      <c r="BD6">
+        <v>31363.70969004212</v>
+      </c>
+      <c r="BE6">
+        <v>84581.65297069371</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>390880.4033090176</v>
+      </c>
+      <c r="C7">
+        <v>14866.02065391227</v>
+      </c>
+      <c r="D7">
+        <v>25346.49008713725</v>
+      </c>
+      <c r="E7">
+        <v>47421.91945703898</v>
+      </c>
+      <c r="F7">
+        <v>84050.06978544366</v>
+      </c>
+      <c r="G7">
+        <v>129674.0632524905</v>
+      </c>
+      <c r="H7">
+        <v>134957.0708620995</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>17667.88659312279</v>
+      </c>
+      <c r="K7">
+        <v>13753.57735486811</v>
+      </c>
+      <c r="L7">
+        <v>7107.831979147737</v>
+      </c>
+      <c r="M7">
+        <v>3020.339927262978</v>
+      </c>
+      <c r="N7">
+        <v>1111.061597527227</v>
+      </c>
+      <c r="O7">
+        <v>2026.530751231573</v>
+      </c>
+      <c r="P7">
+        <v>12.6940912375504</v>
+      </c>
+      <c r="Q7">
+        <v>193.5102663910755</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>80412.403115933</v>
+      </c>
+      <c r="T7">
+        <v>455703.4902221682</v>
+      </c>
+      <c r="U7">
+        <v>53555.76147018623</v>
+      </c>
+      <c r="V7">
+        <v>13122.72043314583</v>
+      </c>
+      <c r="W7">
+        <v>211234.0981832707</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>644123.514086923</v>
+      </c>
+      <c r="AJ7">
+        <v>390880.4033090176</v>
+      </c>
+      <c r="AK7">
+        <v>1300524</v>
+      </c>
+      <c r="AL7">
+        <v>16</v>
+      </c>
+      <c r="AM7">
+        <v>16</v>
+      </c>
+      <c r="AN7">
+        <v>5663.348981383001</v>
+      </c>
+      <c r="AO7">
+        <v>7754.775720731452</v>
+      </c>
+      <c r="AP7">
+        <v>125.6106435543791</v>
+      </c>
+      <c r="AQ7">
+        <v>1000.156166173091</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>5969.731421931499</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>3295.508059739041</v>
+      </c>
+      <c r="BE7">
+        <v>26746.62178698299</v>
+      </c>
+      <c r="BF7">
+        <v>34393.2037454165</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>552342.9634946054</v>
+      </c>
+      <c r="C8">
+        <v>104440.6729791834</v>
+      </c>
+      <c r="D8">
+        <v>164440.9684112665</v>
+      </c>
+      <c r="E8">
+        <v>95230.87116752927</v>
+      </c>
+      <c r="F8">
+        <v>55425.22823502671</v>
+      </c>
+      <c r="G8">
+        <v>44847.36156580654</v>
+      </c>
+      <c r="H8">
+        <v>50541.52414704552</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>20301.46197438031</v>
+      </c>
+      <c r="K8">
+        <v>11130.63674851162</v>
+      </c>
+      <c r="L8">
+        <v>12187.48121688961</v>
+      </c>
+      <c r="M8">
+        <v>7372.875836632872</v>
+      </c>
+      <c r="N8">
+        <v>1265.800782214513</v>
+      </c>
+      <c r="O8">
+        <v>1169.3916315234</v>
+      </c>
+      <c r="P8">
+        <v>201.4346285541393</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>74570.1539483104</v>
+      </c>
+      <c r="T8">
+        <v>703073.5316910507</v>
+      </c>
+      <c r="U8">
+        <v>81843.82337873874</v>
+      </c>
+      <c r="V8">
+        <v>12597.20227517366</v>
+      </c>
+      <c r="W8">
+        <v>310751.4254615664</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>579596.4900313151</v>
+      </c>
+      <c r="AJ8">
+        <v>552342.9634946054</v>
+      </c>
+      <c r="AK8">
+        <v>1749945</v>
+      </c>
+      <c r="AL8">
+        <v>15</v>
+      </c>
+      <c r="AM8">
+        <v>15</v>
+      </c>
+      <c r="AN8">
+        <v>50993.67600148125</v>
+      </c>
+      <c r="AO8">
+        <v>63661.16276949619</v>
+      </c>
+      <c r="AP8">
+        <v>1.991602970037045</v>
+      </c>
+      <c r="AQ8">
+        <v>349.0064122930367</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>27619.9685017059</v>
+      </c>
+      <c r="AZ8">
+        <v>45872.09791250941</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>40842.05450602205</v>
+      </c>
+      <c r="BF8">
+        <v>20590.07311434087</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>780282.1155655915</v>
+      </c>
+      <c r="C9">
+        <v>143320.7820723669</v>
+      </c>
+      <c r="D9">
+        <v>219259.3569644431</v>
+      </c>
+      <c r="E9">
+        <v>130020.1458817266</v>
+      </c>
+      <c r="F9">
+        <v>73548.68842777658</v>
+      </c>
+      <c r="G9">
+        <v>60655.42281786868</v>
+      </c>
+      <c r="H9">
+        <v>67390.35702804344</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>41448.9150257532</v>
+      </c>
+      <c r="K9">
+        <v>22393.16388483163</v>
+      </c>
+      <c r="L9">
+        <v>22122.21676615153</v>
+      </c>
+      <c r="M9">
+        <v>14270.57288859488</v>
+      </c>
+      <c r="N9">
+        <v>3143.248687809561</v>
+      </c>
+      <c r="O9">
+        <v>2048.83462466036</v>
+      </c>
+      <c r="P9">
+        <v>249.9101435161512</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>134952.8887597024</v>
+      </c>
+      <c r="T9">
+        <v>952630.0607692761</v>
+      </c>
+      <c r="U9">
+        <v>105334.886534048</v>
+      </c>
+      <c r="V9">
+        <v>29722.69174205177</v>
+      </c>
+      <c r="W9">
+        <v>398512.8231474863</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>2250799.822342568</v>
+      </c>
+      <c r="AJ9">
+        <v>780282.1155655915</v>
+      </c>
+      <c r="AK9">
+        <v>2150314</v>
+      </c>
+      <c r="AL9">
+        <v>16</v>
+      </c>
+      <c r="AM9">
+        <v>16</v>
+      </c>
+      <c r="AN9">
+        <v>70120.92299980075</v>
+      </c>
+      <c r="AO9">
+        <v>87723.89538486333</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>681.3320114146869</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>37739.17514010974</v>
+      </c>
+      <c r="AZ9">
+        <v>62851.31405227698</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>6363.343613743218</v>
+      </c>
+      <c r="BE9">
+        <v>48027.80229272971</v>
+      </c>
+      <c r="BF9">
+        <v>28594.69472697037</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>101589.5276590407</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>26881.50995847547</v>
+      </c>
+      <c r="C10">
+        <v>338.7771340490245</v>
+      </c>
+      <c r="D10">
+        <v>584.1127715136682</v>
+      </c>
+      <c r="E10">
+        <v>343.4480467146752</v>
+      </c>
+      <c r="F10">
+        <v>201.7940239200005</v>
+      </c>
+      <c r="G10">
+        <v>147.8906460784252</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9540.35104726882</v>
+      </c>
+      <c r="K10">
+        <v>5037.638557519271</v>
+      </c>
+      <c r="L10">
+        <v>5386.85456223674</v>
+      </c>
+      <c r="M10">
+        <v>3209.961821073463</v>
+      </c>
+      <c r="N10">
+        <v>678.915233988239</v>
+      </c>
+      <c r="O10">
+        <v>450.7849141631495</v>
+      </c>
+      <c r="P10">
+        <v>76.10804567885181</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>33703.53786790535</v>
+      </c>
+      <c r="T10">
+        <v>2418.960752203349</v>
+      </c>
+      <c r="U10">
+        <v>3651.850699316868</v>
+      </c>
+      <c r="V10">
+        <v>1324.748336689506</v>
+      </c>
+      <c r="W10">
+        <v>15800.27676730464</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>-29260.93774057839</v>
+      </c>
+      <c r="AJ10">
+        <v>26881.50995847547</v>
+      </c>
+      <c r="AK10">
+        <v>78172</v>
+      </c>
+      <c r="AL10">
+        <v>11</v>
+      </c>
+      <c r="AM10">
+        <v>11</v>
+      </c>
+      <c r="AN10">
+        <v>183.2683579706192</v>
+      </c>
+      <c r="AO10">
+        <v>243.7627229777881</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>171.3856950650556</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>207.8301784007576</v>
+      </c>
+      <c r="AZ10">
+        <v>168.0768705783907</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>326.6590104463298</v>
+      </c>
+      <c r="BE10">
+        <v>1532.056532273565</v>
+      </c>
+      <c r="BF10">
+        <v>9072.634011628144</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>3480.645906484516</v>
+      </c>
+      <c r="BI10">
+        <v>78.90397928361017</v>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>2018_test</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
